--- a/china_used_car_estimate/进度管理计划.xlsx
+++ b/china_used_car_estimate/进度管理计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11985" tabRatio="993"/>
+    <workbookView windowWidth="28935" windowHeight="11790" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="进度管理计划文件" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>公平价二手车估值系统升级—进度管理计划</t>
   </si>
@@ -93,12 +93,24 @@
     <t>完成</t>
   </si>
   <si>
+    <t>吴辛成支持其他项目</t>
+  </si>
+  <si>
     <t>编写项目章程文件</t>
   </si>
   <si>
+    <t>人工预测一批车源数据</t>
+  </si>
+  <si>
+    <t>计划时遗漏工作项</t>
+  </si>
+  <si>
     <t>编写进度管理计划文件</t>
   </si>
   <si>
+    <t>力洋与汽车之家的款型匹配</t>
+  </si>
+  <si>
     <t>组织与准备阶段</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t>方案评审</t>
   </si>
   <si>
+    <t>工作绩效汇总</t>
+  </si>
+  <si>
     <t>更新进度管理计划文件</t>
   </si>
   <si>
@@ -177,64 +192,88 @@
     <t>11.12/11.13</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>开发版本</t>
+  </si>
+  <si>
+    <t>成员</t>
+  </si>
+  <si>
+    <t>职责</t>
+  </si>
+  <si>
+    <t>工作日</t>
+  </si>
+  <si>
+    <t>人人车二手车平台抓取升级</t>
+  </si>
+  <si>
+    <t>11.14/11.15</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>项目负责人,系统设计和开发</t>
+  </si>
+  <si>
+    <t>优信二手车平台抓取升级</t>
+  </si>
+  <si>
+    <t>11.16/11.19</t>
+  </si>
+  <si>
+    <t>爬虫抓取</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>探索分析汽车之家车型库</t>
+  </si>
+  <si>
+    <t>11.14/11.16</t>
+  </si>
+  <si>
+    <t>孙文强</t>
+  </si>
+  <si>
+    <t>评估师</t>
+  </si>
+  <si>
+    <t>训练调试款型匹配模型</t>
+  </si>
+  <si>
+    <t>11.19/11.21</t>
+  </si>
+  <si>
+    <t>探索分析瓜子,人人车,优信车源数据</t>
+  </si>
+  <si>
+    <t>11.22/11.26</t>
+  </si>
+  <si>
+    <t>训练调试估值模型</t>
+  </si>
+  <si>
+    <t>11.27/11.29</t>
+  </si>
+  <si>
+    <t>验证报告</t>
+  </si>
+  <si>
+    <t>版本更新款型预测变化幅度较大报告</t>
+  </si>
+  <si>
+    <t>11.30/12.03</t>
+  </si>
+  <si>
+    <t>竞品对比报告</t>
+  </si>
+  <si>
     <t>推迟</t>
-  </si>
-  <si>
-    <t>人人车二手车平台抓取升级</t>
-  </si>
-  <si>
-    <t>11.14/11.15</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>优信二手车平台抓取升级</t>
-  </si>
-  <si>
-    <t>11.16/11.19</t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>探索分析汽车之家车型库</t>
-  </si>
-  <si>
-    <t>11.14/11.16</t>
-  </si>
-  <si>
-    <t>训练调试款型匹配模型</t>
-  </si>
-  <si>
-    <t>11.19/11.21</t>
-  </si>
-  <si>
-    <t>探索分析瓜子,人人车,优信车源数据</t>
-  </si>
-  <si>
-    <t>11.22/11.26</t>
-  </si>
-  <si>
-    <t>训练调试估值模型</t>
-  </si>
-  <si>
-    <t>11.27/11.29</t>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>验证报告</t>
-  </si>
-  <si>
-    <t>版本更新款型预测变化幅度较大报告</t>
-  </si>
-  <si>
-    <t>11.30/12.03</t>
-  </si>
-  <si>
-    <t>竞品对比报告</t>
   </si>
   <si>
     <t>测试阶段</t>
@@ -290,6 +329,24 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <charset val="1"/>
       </rPr>
+      <t>版本预计实际交付时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>V1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="1"/>
+      </rPr>
       <t>版本最终实际交付时间</t>
     </r>
   </si>
@@ -299,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -334,14 +391,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -349,39 +401,88 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -389,43 +490,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -433,59 +498,51 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -511,20 +568,194 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3399FF"/>
         <bgColor rgb="FF00CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -535,191 +766,45 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,6 +823,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -747,28 +878,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,21 +913,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,160 +934,168 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1002,6 +1124,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1014,64 +1140,81 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1408,10 +1551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1423,10 +1566,10 @@
     <col min="5" max="5" width="19.7047619047619"/>
     <col min="6" max="6" width="10.3904761904762" style="2"/>
     <col min="11" max="11" width="9.18095238095238"/>
-    <col min="12" max="12" width="20.3809523809524"/>
+    <col min="12" max="12" width="25.2857142857143" customWidth="1"/>
     <col min="13" max="13" width="10.2571428571429"/>
     <col min="14" max="14" width="9.44761904761905"/>
-    <col min="15" max="15" width="10.5333333333333"/>
+    <col min="15" max="15" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1531,31 +1674,31 @@
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1572,448 +1715,594 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="I7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>11.12</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="15">
+        <v>30</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <v>10.31</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="I8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>12.07</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="15">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <v>10.31</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15">
+        <v>12.14</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" ht="15.7" customHeight="1" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13">
+        <v>33</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="15">
         <v>11.02</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" ht="15.7" customHeight="1" spans="1:15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <v>11.05</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" ht="15.7" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <v>11.05</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" ht="16.45" customHeight="1" spans="1:15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" ht="16.45" customHeight="1" spans="1:15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="15">
         <v>11.09</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <v>11.12</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <v>11.13</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="15.55" customHeight="1" spans="1:7">
+    <row r="18" ht="15.55" customHeight="1" spans="1:15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="13">
+        <v>43</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15">
         <v>11.14</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="15">
         <v>11.14</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="13">
+        <v>46</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="15">
         <v>11.14</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="15">
         <v>11.15</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="26">
         <v>46</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="26">
+        <v>14</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="F27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="I27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="26">
+        <v>3</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="26">
+        <v>6</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2022,15 +2311,15 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2039,35 +2328,35 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>67</v>
+      <c r="F30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>70</v>
+      <c r="F31" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2075,37 +2364,37 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="15">
         <v>12.04</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>55</v>
+      <c r="G32" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="15">
         <v>12.05</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2113,57 +2402,84 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="15">
         <v>12.06</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="15">
         <v>12.07</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="15">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="15">
         <v>12.07</v>
       </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="15">
+        <v>12.21</v>
+      </c>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
     <mergeCell ref="A7:A35"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B21"/>
@@ -2177,6 +2493,7 @@
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="I1:O5"/>
     <mergeCell ref="A3:G5"/>
+    <mergeCell ref="I18:O23"/>
   </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/china_used_car_estimate/进度管理计划.xlsx
+++ b/china_used_car_estimate/进度管理计划.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28935" windowHeight="11790" tabRatio="993"/>
+    <workbookView windowWidth="27705" windowHeight="11760" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="进度管理计划文件" sheetId="1" r:id="rId1"/>
+    <sheet name="V1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="V1.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
   <si>
     <t>公平价二手车估值系统升级—进度管理计划</t>
   </si>
@@ -192,39 +193,39 @@
     <t>11.12/11.13</t>
   </si>
   <si>
+    <t>开发版本</t>
+  </si>
+  <si>
+    <t>成员</t>
+  </si>
+  <si>
+    <t>职责</t>
+  </si>
+  <si>
+    <t>工作日</t>
+  </si>
+  <si>
+    <t>人人车二手车平台抓取升级</t>
+  </si>
+  <si>
+    <t>11.14/11.15</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>开发版本</t>
-  </si>
-  <si>
-    <t>成员</t>
-  </si>
-  <si>
-    <t>职责</t>
-  </si>
-  <si>
-    <t>工作日</t>
-  </si>
-  <si>
-    <t>人人车二手车平台抓取升级</t>
-  </si>
-  <si>
-    <t>11.14/11.15</t>
+    <t>项目负责人,系统设计和开发</t>
+  </si>
+  <si>
+    <t>优信二手车平台抓取升级</t>
+  </si>
+  <si>
+    <t>11.16/11.19</t>
   </si>
   <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>项目负责人,系统设计和开发</t>
-  </si>
-  <si>
-    <t>优信二手车平台抓取升级</t>
-  </si>
-  <si>
-    <t>11.16/11.19</t>
-  </si>
-  <si>
     <t>爬虫抓取</t>
   </si>
   <si>
@@ -271,9 +272,6 @@
   </si>
   <si>
     <t>竞品对比报告</t>
-  </si>
-  <si>
-    <t>推迟</t>
   </si>
   <si>
     <t>测试阶段</t>
@@ -350,16 +348,134 @@
       <t>版本最终实际交付时间</t>
     </r>
   </si>
+  <si>
+    <t>项目负责人:雷邓君
+架构/算法:雷邓君
+爬虫开发:吴辛成
+配合:孙文强
+开始时间:2月13号  截止时间:3月17号</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>编写代码将V1.0抓取结果解析并定期更新到数据库</t>
+  </si>
+  <si>
+    <t>2.13/2.22</t>
+  </si>
+  <si>
+    <t>抓取天天拍平台数据</t>
+  </si>
+  <si>
+    <t>2.25/3.1</t>
+  </si>
+  <si>
+    <t>抓取市场保有量特征(暂定)</t>
+  </si>
+  <si>
+    <t>3.4/3.8</t>
+  </si>
+  <si>
+    <t>调研市场相关信息</t>
+  </si>
+  <si>
+    <t>2.13/2.15</t>
+  </si>
+  <si>
+    <t>细化训练集特征的数据分析</t>
+  </si>
+  <si>
+    <t>2.18/2.22</t>
+  </si>
+  <si>
+    <t>解析探索拟合天天拍平台数据</t>
+  </si>
+  <si>
+    <t>2.25/2.26</t>
+  </si>
+  <si>
+    <t>解析探索拟合保有量特征(暂定)</t>
+  </si>
+  <si>
+    <t>2.27/2.28</t>
+  </si>
+  <si>
+    <t>完善升级版本对爬虫和上一版估值系统的衔接工作</t>
+  </si>
+  <si>
+    <t>3.4/3.6</t>
+  </si>
+  <si>
+    <t>3.7/3.8</t>
+  </si>
+  <si>
+    <t>定期任务</t>
+  </si>
+  <si>
+    <t>根据车源数据定期更新估值模型(包括汽车之家款型,4S店零售价处理)</t>
+  </si>
+  <si>
+    <t>定期(每周1天)</t>
+  </si>
+  <si>
+    <t>人工评估指定车源数据</t>
+  </si>
+  <si>
+    <t>孙文强/万晓峰</t>
+  </si>
+  <si>
+    <t>定期(每月3天)</t>
+  </si>
+  <si>
+    <t>定期(每周3天)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>V1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>版本预计实际交付时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>V1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>版本最终实际交付时间</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -398,6 +514,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -413,8 +541,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,19 +571,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,20 +587,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,37 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,14 +626,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -541,13 +657,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,26 +678,164 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF00CCFF"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -592,43 +846,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,138 +876,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -789,6 +899,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -873,15 +1020,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -902,17 +1040,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +1070,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -943,159 +1096,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1114,15 +1261,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1132,21 +1288,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,13 +1322,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1674,347 +1841,347 @@
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="21">
         <v>11.12</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="21">
         <v>30</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="21">
         <v>10.31</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="21">
         <v>12.07</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="21">
         <v>3</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="21">
         <v>10.31</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="21">
         <v>3</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="21">
         <v>12.14</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="21">
         <v>3</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="G10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="21">
         <v>11.02</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="G11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="21">
         <v>11.05</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="G12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="21">
         <v>11.05</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="G13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" ht="16.45" customHeight="1" spans="1:15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="G14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" ht="16.45" customHeight="1" spans="1:15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="21">
         <v>11.09</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="G15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="21">
         <v>11.12</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="G16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="21">
         <v>11.13</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="15.55" customHeight="1" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="21">
         <v>11.14</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2028,19 +2195,19 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="21">
         <v>11.14</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="3"/>
@@ -2052,19 +2219,19 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="21">
         <v>11.14</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="3"/>
@@ -2076,19 +2243,19 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="21">
         <v>11.15</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="3"/>
@@ -2100,23 +2267,23 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="3"/>
@@ -2128,19 +2295,19 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="3"/>
@@ -2152,327 +2319,327 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="25" t="s">
+      <c r="L24" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="M24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="G25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="32">
+        <v>1</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="32">
+        <v>46</v>
+      </c>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="F26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="26">
-        <v>1</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="26">
-        <v>46</v>
-      </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="J26" s="32">
+        <v>2</v>
+      </c>
+      <c r="K26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="26">
-        <v>2</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="32">
         <v>14</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="G27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="32">
         <v>3</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="32">
         <v>6</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="9" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="21">
+        <v>12.04</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="15">
-        <v>12.04</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="21">
+        <v>12.05</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E34" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="15">
-        <v>12.05</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="F34" s="21">
+        <v>12.06</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="C35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="15">
-        <v>12.06</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" s="21">
+        <v>12.07</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="15">
+      <c r="F36" s="21">
+        <v>11.15</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="21">
         <v>12.07</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="15">
-        <v>11.15</v>
-      </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="20" t="s">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="15">
-        <v>12.07</v>
-      </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="15">
+      <c r="F38" s="21">
         <v>12.21</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2502,4 +2669,413 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.23809523809524"/>
+    <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="9.84761904761905"/>
+    <col min="4" max="4" width="27.9428571428571" style="1"/>
+    <col min="5" max="5" width="19.7047619047619"/>
+    <col min="6" max="6" width="14.7142857142857" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="53.2" customHeight="1" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3.17</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/china_used_car_estimate/进度管理计划.xlsx
+++ b/china_used_car_estimate/进度管理计划.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="11760" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="30810" windowHeight="12075" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="1" r:id="rId1"/>
     <sheet name="V1.1" sheetId="2" r:id="rId2"/>
+    <sheet name="V1.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="132">
   <si>
     <t>公平价二手车估值系统升级—进度管理计划</t>
   </si>
@@ -211,7 +212,7 @@
     <t>11.14/11.15</t>
   </si>
   <si>
-    <t>进行中</t>
+    <t>停止</t>
   </si>
   <si>
     <t>项目负责人,系统设计和开发</t>
@@ -221,9 +222,6 @@
   </si>
   <si>
     <t>11.16/11.19</t>
-  </si>
-  <si>
-    <t>未完成</t>
   </si>
   <si>
     <t>爬虫抓取</t>
@@ -466,16 +464,59 @@
       <t>版本最终实际交付时间</t>
     </r>
   </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>抓取指定车型车300估值</t>
+  </si>
+  <si>
+    <t>6.27/7.10</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>抓取国家汽车行业相关文件</t>
+  </si>
+  <si>
+    <t>7.11/7.12</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>7.15/7.16</t>
+  </si>
+  <si>
+    <t>7.17/7.18</t>
+  </si>
+  <si>
+    <t>定期(每月2天)</t>
+  </si>
+  <si>
+    <r>
+      <t>V1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>版本预计实际交付时间</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -507,16 +548,10 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -526,17 +561,93 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -544,59 +655,43 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -604,66 +699,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +720,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -690,8 +749,98 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33FF99"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -702,7 +851,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,169 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,22 +1073,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,21 +1108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1100,156 +1123,180 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,15 +1319,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1288,17 +1326,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,8 +1356,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,55 +1382,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1465,7 +1514,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1721,17 +1770,17 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.23809523809524"/>
     <col min="2" max="2" width="10.5333333333333"/>
     <col min="3" max="3" width="9.84761904761905"/>
-    <col min="4" max="4" width="27.9428571428571" style="1"/>
+    <col min="4" max="4" width="27.9428571428571" style="16"/>
     <col min="5" max="5" width="19.7047619047619"/>
-    <col min="6" max="6" width="10.3904761904762" style="2"/>
+    <col min="6" max="6" width="10.3904761904762" style="17"/>
     <col min="11" max="11" width="9.18095238095238"/>
     <col min="12" max="12" width="25.2857142857143" customWidth="1"/>
     <col min="13" max="13" width="10.2571428571429"/>
@@ -1740,111 +1789,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" ht="53.2" customHeight="1" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="27" t="s">
@@ -1870,133 +1919,133 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="15">
         <v>11.12</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="15">
         <v>30</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15">
         <v>10.31</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="G8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="15">
         <v>12.07</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="15">
         <v>3</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="E9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15">
         <v>10.31</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="G9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <v>3</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="15">
         <v>12.14</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="15">
         <v>3</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="28"/>
@@ -2008,19 +2057,19 @@
       <c r="O10" s="28"/>
     </row>
     <row r="11" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>11.02</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="29"/>
@@ -2032,19 +2081,19 @@
       <c r="O11" s="29"/>
     </row>
     <row r="12" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="E12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
         <v>11.05</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="29"/>
@@ -2056,19 +2105,19 @@
       <c r="O12" s="29"/>
     </row>
     <row r="13" ht="15.7" customHeight="1" spans="1:15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="15">
         <v>11.05</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="29"/>
@@ -2080,19 +2129,19 @@
       <c r="O13" s="29"/>
     </row>
     <row r="14" ht="16.45" customHeight="1" spans="1:15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="29"/>
@@ -2104,19 +2153,19 @@
       <c r="O14" s="29"/>
     </row>
     <row r="15" ht="16.45" customHeight="1" spans="1:15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="15">
         <v>11.09</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="29"/>
@@ -2128,19 +2177,19 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="E16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15">
         <v>11.12</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="30"/>
@@ -2152,186 +2201,186 @@
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="E17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="15">
         <v>11.13</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="15.55" customHeight="1" spans="1:15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="15">
         <v>11.14</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="E19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="15">
         <v>11.14</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="G19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <v>11.14</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="G20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="E21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="15">
         <v>11.15</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="G21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="G22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="G23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="7" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="31" t="s">
@@ -2353,22 +2402,22 @@
       <c r="O24" s="35"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="7" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="15" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="32">
@@ -2387,22 +2436,22 @@
       <c r="O25" s="32"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="7" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="32">
@@ -2412,7 +2461,7 @@
         <v>51</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M26" s="32">
         <v>14</v>
@@ -2421,34 +2470,34 @@
       <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="G27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="32">
         <v>3</v>
       </c>
       <c r="K27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="M27" s="32">
         <v>6</v>
@@ -2457,189 +2506,189 @@
       <c r="O27" s="32"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="10" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="G28" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="G30" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="15">
+        <v>12.04</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="21">
-        <v>12.04</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="15">
+        <v>12.05</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="21">
-        <v>12.05</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
+      <c r="E34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="15">
+        <v>12.06</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="21">
-        <v>12.06</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="15">
+        <v>12.07</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="21">
+      <c r="F36" s="15">
+        <v>11.15</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="15">
         <v>12.07</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="21">
-        <v>11.15</v>
-      </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="20" t="s">
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="21">
-        <v>12.07</v>
-      </c>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="21">
+      <c r="F38" s="15">
         <v>12.21</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2676,388 +2725,390 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.23809523809524"/>
     <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="9.84761904761905"/>
-    <col min="4" max="4" width="27.9428571428571" style="1"/>
+    <col min="4" max="4" width="27.9428571428571" style="16"/>
     <col min="5" max="5" width="19.7047619047619"/>
-    <col min="6" max="6" width="14.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="53.2" customHeight="1" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="53.2" customHeight="1" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="49.5" spans="1:7">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" ht="45" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7" t="s">
+      <c r="G18" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="C19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3.14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3.15</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3.16</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="15">
+        <v>3.17</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="21">
-        <v>3.17</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="15">
+        <v>3.21</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3078,4 +3129,288 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="19.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7.19</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7.22</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7.23</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7.23</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>